--- a/answer.xlsx
+++ b/answer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\praja\Downloads\Projects\Jee result Calculator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B41661DF-6F93-4D34-AD80-874D9C12F13B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3880F35D-20FB-4FCA-B370-C810C2E43EE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D1C8ACB-D8C9-4F08-B5C3-22F8F6BFD87D}"/>
   </bookViews>
@@ -108,6 +108,9 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -126,9 +129,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -143,11 +143,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D239CA91-70C8-4C8C-9EA9-9D6EA46167E4}" name="Table1" displayName="Table1" ref="A1:B91" totalsRowShown="0" headerRowDxfId="2" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D239CA91-70C8-4C8C-9EA9-9D6EA46167E4}" name="Table1" displayName="Table1" ref="A1:B91" totalsRowShown="0" headerRowDxfId="3" dataDxfId="2">
   <autoFilter ref="A1:B91" xr:uid="{D239CA91-70C8-4C8C-9EA9-9D6EA46167E4}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0D32BF08-ABA9-4A28-839A-AD323AE329F8}" name="Question ID" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{307D709B-3D55-4755-8DCC-6B6C8A38CFE5}" name="Answers" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{0D32BF08-ABA9-4A28-839A-AD323AE329F8}" name="Question ID" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{307D709B-3D55-4755-8DCC-6B6C8A38CFE5}" name="Answers" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
